--- a/data/annotations/new_annotation_structure_out/iteration_8/iteration_8_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_8/iteration_8_mistral-large-2411-2.xlsx
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5443,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
         <v>0</v>
@@ -7939,10 +7939,10 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
